--- a/Forms/ReportTemplates/Geri - Geri Appt.xlsx
+++ b/Forms/ReportTemplates/Geri - Geri Appt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\Report Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC03ED4-AA5C-41AA-B6DB-362B667A4022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD503A-8DD6-47E5-B3F0-4E0E460D4C32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Geri - OT Consult</t>
-  </si>
-  <si>
     <t>geriGeriApptQ4</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>3) Sign up form for SWCDC filled in?</t>
+  </si>
+  <si>
+    <t>Geri - Geri Appt</t>
   </si>
 </sst>
 </file>
@@ -437,9 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC5F2F1-36A0-4965-BAA8-67364BD15367}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -454,7 +452,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -463,19 +461,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -483,19 +481,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Forms/ReportTemplates/Geri - Geri Appt.xlsx
+++ b/Forms/ReportTemplates/Geri - Geri Appt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD503A-8DD6-47E5-B3F0-4E0E460D4C32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269B5663-6566-4DE2-8703-074D296222F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
@@ -437,7 +437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC5F2F1-36A0-4965-BAA8-67364BD15367}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -456,44 +458,44 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
